--- a/src/main/resources/org/jxls/demo/stress1.xlsx
+++ b/src/main/resources/org/jxls/demo/stress1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -29,9 +29,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -54,9 +55,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>${employee.name}</t>
   </si>
@@ -88,12 +90,27 @@
   <si>
     <t>${employee.bonus}</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,19 +125,33 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,21 +166,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +224,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -221,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,9 +293,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,22 +469,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.83984375" customWidth="1"/>
+    <col min="2" max="2" width="15.578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.41796875" customWidth="1"/>
+    <col min="5" max="5" width="15.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5"/>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -463,7 +518,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E3" t="e">
         <f>SUM(E2)</f>
         <v>#VALUE!</v>
@@ -471,29 +526,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
